--- a/Methanol/Methanol_AVE_MOL_FRAC.xlsx
+++ b/Methanol/Methanol_AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8C5846A8-06A6-4842-99D1-08C43461E318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A02AF8AD-85A7-4450-8775-40BFCDC73BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{92F54F10-C2E7-4711-A7DD-53BC39E22AFF}"/>
+    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{92F54F10-C2E7-4711-A7DD-53BC39E22AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,18 +534,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
@@ -614,40 +610,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.2999999999999997E-2</v>
+        <v>4.603716659046319E-2</v>
       </c>
       <c r="C2">
-        <v>5.2699999999999997E-2</v>
+        <v>5.583762274158046E-2</v>
       </c>
       <c r="D2">
-        <v>0.17019999999999999</v>
+        <v>0.16507427105645267</v>
       </c>
       <c r="E2">
-        <v>4.1999999999999997E-3</v>
+        <v>4.6141185497058004E-3</v>
       </c>
       <c r="F2">
-        <v>1.6799999999999999E-2</v>
+        <v>1.8163857040047401E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.26640000000000003</v>
+        <v>0.23958801351603018</v>
       </c>
       <c r="I2">
-        <v>0.38840000000000002</v>
+        <v>0.40406750380213552</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.1000000000000001E-3</v>
+        <v>1.186566531755136E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.7200000000000001E-2</v>
+        <v>6.0770544997311778E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -670,40 +666,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7100000000000003E-2</v>
+        <v>4.9442969088131845E-2</v>
       </c>
       <c r="C3">
-        <v>5.7599999999999998E-2</v>
+        <v>5.9995295638911428E-2</v>
       </c>
       <c r="D3">
-        <v>0.17860000000000001</v>
+        <v>0.18347066895762471</v>
       </c>
       <c r="E3">
-        <v>4.5999999999999999E-3</v>
+        <v>4.8182716919801718E-3</v>
       </c>
       <c r="F3">
-        <v>1.5699999999999999E-2</v>
+        <v>1.6383345918611982E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2089</v>
+        <v>0.18506047728377595</v>
       </c>
       <c r="I3">
-        <v>0.41899999999999998</v>
+        <v>0.42469755800259729</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.3296451852568177E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.7299999999999999E-2</v>
+        <v>7.0118365579132827E-2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -726,40 +722,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.4399999999999997E-2</v>
+        <v>5.7205512029483929E-2</v>
       </c>
       <c r="C4">
-        <v>4.4699999999999997E-2</v>
+        <v>4.6546405904140831E-2</v>
       </c>
       <c r="D4">
-        <v>0.17080000000000001</v>
+        <v>0.17614897576312016</v>
       </c>
       <c r="E4">
-        <v>5.7000000000000002E-3</v>
+        <v>6.009464234776051E-3</v>
       </c>
       <c r="F4">
-        <v>3.2500000000000001E-2</v>
+        <v>3.4250577195579356E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.115</v>
+        <v>8.210926032940119E-2</v>
       </c>
       <c r="I4">
-        <v>0.51819999999999999</v>
+        <v>0.53103131985091534</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.9999999999999998E-4</v>
+        <v>9.9610136740300179E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.7799999999999997E-2</v>
+        <v>6.1029470173859283E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -782,40 +778,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.5300000000000002E-2</v>
+        <v>5.859395310691267E-2</v>
       </c>
       <c r="C5">
-        <v>3.1699999999999999E-2</v>
+        <v>3.3284905913351343E-2</v>
       </c>
       <c r="D5">
-        <v>0.16450000000000001</v>
+        <v>0.17063796760717959</v>
       </c>
       <c r="E5">
-        <v>6.3E-3</v>
+        <v>6.6814966328272996E-3</v>
       </c>
       <c r="F5">
-        <v>4.8599999999999997E-2</v>
+        <v>5.1560059765336043E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.09E-2</v>
+        <v>4.0837791589324143E-2</v>
       </c>
       <c r="I5">
-        <v>0.56969999999999998</v>
+        <v>0.58803532258640467</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.9999999999999995E-4</v>
+        <v>6.6903178039436344E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.24E-2</v>
+        <v>4.5067038622729531E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -838,40 +834,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.8500000000000003E-2</v>
+        <v>6.0961525595000038E-2</v>
       </c>
       <c r="C6">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7865206942132429E-2</v>
       </c>
       <c r="D6">
-        <v>0.13150000000000001</v>
+        <v>0.14767855548549222</v>
       </c>
       <c r="E6">
-        <v>6.7999999999999996E-3</v>
+        <v>7.1625430133323426E-3</v>
       </c>
       <c r="F6">
-        <v>7.9799999999999996E-2</v>
+        <v>8.3043055279696867E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5.7500000000000002E-2</v>
+        <v>2.1689206747509696E-2</v>
       </c>
       <c r="I6">
-        <v>0.625</v>
+        <v>0.63157995028703917</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.9999999999999997E-4</v>
+        <v>3.7110064594348194E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.4E-2</v>
+        <v>2.506679501266151E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -894,40 +890,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.8500000000000001E-2</v>
+        <v>5.2016529506637592E-2</v>
       </c>
       <c r="C7">
-        <v>9.9000000000000008E-3</v>
+        <v>1.1113426978582006E-2</v>
       </c>
       <c r="D7">
-        <v>0.11899999999999999</v>
+        <v>0.12005833796355526</v>
       </c>
       <c r="E7">
-        <v>7.1000000000000004E-3</v>
+        <v>7.7856537279799663E-3</v>
       </c>
       <c r="F7">
-        <v>9.5699999999999993E-2</v>
+        <v>0.10185918073024242</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.99E-2</v>
+        <v>2.6005248401475612E-3</v>
       </c>
       <c r="I7">
-        <v>0.6532</v>
+        <v>0.68184684901284054</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.0000000000000001E-4</v>
+        <v>2.2854902303269479E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.66E-2</v>
+        <v>1.7836479814073544E-2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -950,40 +946,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3.7199999999999997E-2</v>
+        <v>3.775832057644158E-2</v>
       </c>
       <c r="C8">
-        <v>1.2999999999999999E-3</v>
+        <v>2.2396320064072815E-3</v>
       </c>
       <c r="D8">
-        <v>5.4199999999999998E-2</v>
+        <v>7.1173635892437526E-2</v>
       </c>
       <c r="E8">
-        <v>8.2000000000000007E-3</v>
+        <v>8.4004141209852931E-3</v>
       </c>
       <c r="F8">
-        <v>0.13719999999999999</v>
+        <v>0.13711495688109807</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.8237878654192926E-4</v>
       </c>
       <c r="I8">
-        <v>0.75839999999999996</v>
+        <v>0.73510200535652359</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.1126178138968019E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.3999999999999998E-3</v>
+        <v>3.2098823144213148E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1006,40 +1002,40 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>2.06E-2</v>
+        <v>2.5711527429275998E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.4400000000000002E-2</v>
+        <v>4.7316984328119004E-2</v>
       </c>
       <c r="E9">
-        <v>8.3999999999999995E-3</v>
+        <v>8.5025518317792658E-3</v>
       </c>
       <c r="F9">
-        <v>0.16619999999999999</v>
+        <v>0.16112578901486249</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.1672692841234485E-4</v>
       </c>
       <c r="I9">
-        <v>0.77990000000000004</v>
+        <v>0.75149226999864582</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.9059521740716443E-6</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.0000000000000002E-4</v>
+        <v>6.4661363054168905E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1062,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>8.8000000000000005E-3</v>
+        <v>9.477354817196389E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.4310597430786652E-2</v>
       </c>
       <c r="E10">
-        <v>8.5000000000000006E-3</v>
+        <v>8.7696530735852825E-3</v>
       </c>
       <c r="F10">
-        <v>0.19170000000000001</v>
+        <v>0.19207068915676312</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1083,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.79100000000000004</v>
+        <v>0.77068461668798671</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1206,40 +1202,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.9635969399905184E-3</v>
+        <v>5.5308960899620608E-3</v>
       </c>
       <c r="C2">
-        <v>3.5736470251230717E-3</v>
+        <v>4.3567096264234472E-3</v>
       </c>
       <c r="D2">
-        <v>3.318361129256827E-2</v>
+        <v>3.3924134182618831E-2</v>
       </c>
       <c r="E2">
-        <v>2.6628297386068947E-4</v>
+        <v>4.0310281354297373E-4</v>
       </c>
       <c r="F2">
-        <v>1.1785143018201388E-3</v>
+        <v>1.6900231279933431E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.5044089423806906E-2</v>
+        <v>6.0276447901856108E-2</v>
       </c>
       <c r="I2">
-        <v>2.4821755068396741E-2</v>
+        <v>2.4656991130428112E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.5654277756062173E-5</v>
+        <v>1.030313080442258E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.0451248729793882E-3</v>
+        <v>3.7161059179990344E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1262,40 +1258,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.1498005663855144E-3</v>
+        <v>6.574705496540446E-3</v>
       </c>
       <c r="C3">
-        <v>7.3306580255081888E-3</v>
+        <v>8.6918182678569957E-3</v>
       </c>
       <c r="D3">
-        <v>4.5660057778498839E-2</v>
+        <v>4.855405396905299E-2</v>
       </c>
       <c r="E3">
-        <v>6.619482897150821E-4</v>
+        <v>7.8598226908709067E-4</v>
       </c>
       <c r="F3">
-        <v>9.2606484664577576E-3</v>
+        <v>9.6257656715250869E-3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.10700670696881012</v>
+        <v>9.6260254166997974E-2</v>
       </c>
       <c r="I3">
-        <v>5.9349700726157764E-2</v>
+        <v>5.8942400351950745E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.7903097983659527E-4</v>
+        <v>2.2117078849128504E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.9249342462066399E-3</v>
+        <v>9.1925229207817094E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1318,40 +1314,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.6639850891925993E-3</v>
+        <v>6.5286304375612699E-3</v>
       </c>
       <c r="C4">
-        <v>6.106040734313257E-3</v>
+        <v>6.9211956829036483E-3</v>
       </c>
       <c r="D4">
-        <v>5.0845046829179633E-2</v>
+        <v>5.4568882432693332E-2</v>
       </c>
       <c r="E4">
-        <v>4.5307735997604195E-4</v>
+        <v>7.4391234164835457E-4</v>
       </c>
       <c r="F4">
-        <v>8.273099817114318E-3</v>
+        <v>8.6851149149124486E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.973141374048105E-2</v>
+        <v>3.1655370263164284E-2</v>
       </c>
       <c r="I4">
-        <v>3.7282592823268651E-2</v>
+        <v>4.153538326157747E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.2380805205008835E-4</v>
+        <v>1.3664151810775942E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.7721698100393947E-3</v>
+        <v>7.6968285252396237E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1374,40 +1370,40 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.426606063129009E-3</v>
+        <v>3.6145970461259596E-3</v>
       </c>
       <c r="C5">
-        <v>3.9068624479365955E-3</v>
+        <v>4.3262249855030542E-3</v>
       </c>
       <c r="D5">
-        <v>3.9171772089400411E-2</v>
+        <v>4.1879877936231866E-2</v>
       </c>
       <c r="E5">
-        <v>3.8265959683849224E-4</v>
+        <v>6.5773192266033479E-4</v>
       </c>
       <c r="F5">
-        <v>5.2239895485269262E-3</v>
+        <v>5.4540945766933446E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.5822411060949775E-2</v>
+        <v>1.335520294650339E-2</v>
       </c>
       <c r="I5">
-        <v>3.1930982365498087E-2</v>
+        <v>3.2842877629181345E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.3799355067938145E-4</v>
+        <v>1.4768908331000318E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.5809152087803182E-3</v>
+        <v>3.9908264840615611E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1430,40 +1426,40 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3.5649898138083156E-3</v>
+        <v>4.4789948432966721E-3</v>
       </c>
       <c r="C6">
-        <v>3.8665453632038709E-3</v>
+        <v>4.9163194311054323E-3</v>
       </c>
       <c r="D6">
-        <v>3.2558451571439766E-2</v>
+        <v>4.2280901666464858E-2</v>
       </c>
       <c r="E6">
-        <v>3.4421539167278333E-4</v>
+        <v>6.684559804238777E-4</v>
       </c>
       <c r="F6">
-        <v>7.5620955064615606E-3</v>
+        <v>8.8008874443410452E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.0462806245392928E-2</v>
+        <v>1.258643174539285E-2</v>
       </c>
       <c r="I6">
-        <v>2.378914261118055E-2</v>
+        <v>3.4257601094814939E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.5053044913545581E-5</v>
+        <v>1.1399807149826545E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.1511380788006825E-3</v>
+        <v>5.7862611255707092E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1486,40 +1482,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3.6750916901976392E-3</v>
+        <v>4.097688608480826E-3</v>
       </c>
       <c r="C7">
-        <v>9.671290416705025E-4</v>
+        <v>8.3754229340376215E-4</v>
       </c>
       <c r="D7">
-        <v>3.5483994594915136E-2</v>
+        <v>3.0662814489010853E-2</v>
       </c>
       <c r="E7">
-        <v>2.979338529120986E-4</v>
+        <v>6.0847561765626113E-4</v>
       </c>
       <c r="F7">
-        <v>8.1340163671305785E-3</v>
+        <v>8.4305269232659626E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.1026785395913624E-3</v>
+        <v>8.7476079178032732E-4</v>
       </c>
       <c r="I7">
-        <v>2.2256116775370469E-2</v>
+        <v>2.400149008155297E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.9785750958574486E-5</v>
+        <v>1.4036557982302733E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.1603844424242743E-3</v>
+        <v>2.1256184498360808E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1542,40 +1538,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2.2129217087447227E-3</v>
+        <v>1.3931563446269184E-3</v>
       </c>
       <c r="C8">
-        <v>8.3464395030727041E-5</v>
+        <v>1.7502572376620234E-4</v>
       </c>
       <c r="D8">
-        <v>1.3609295693762048E-2</v>
+        <v>1.4546875488527048E-2</v>
       </c>
       <c r="E8">
-        <v>3.2056368105849665E-4</v>
+        <v>6.2308904053313963E-4</v>
       </c>
       <c r="F8">
-        <v>3.9107531607040823E-3</v>
+        <v>3.8981300727669553E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.3643852469956714E-4</v>
       </c>
       <c r="I8">
-        <v>2.3862791101617174E-2</v>
+        <v>1.9441179826854824E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5.4952987690033735E-6</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.1705384038132899E-4</v>
+        <v>2.3329279411879331E-4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1598,40 +1594,40 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>8.8594202719729735E-3</v>
+        <v>6.1566832149304626E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.6396580776156479E-3</v>
+        <v>9.8749573637049119E-3</v>
       </c>
       <c r="E9">
-        <v>2.7702963305892303E-4</v>
+        <v>6.0200574200924145E-4</v>
       </c>
       <c r="F9">
-        <v>1.5020694948785909E-2</v>
+        <v>3.4132608329052964E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.353113414970032E-5</v>
       </c>
       <c r="I9">
-        <v>1.7262198776788137E-2</v>
+        <v>1.580043900447909E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.1594212835715292E-7</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.2137109394246749E-4</v>
+        <v>1.5187369616865154E-5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1654,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>6.9840652254613846E-4</v>
+        <v>2.1153993930755715E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.6336349274119916E-3</v>
       </c>
       <c r="E10">
-        <v>2.9413621884273871E-4</v>
+        <v>6.1624468061014274E-4</v>
       </c>
       <c r="F10">
-        <v>4.4121984715622935E-3</v>
+        <v>3.7124260406368789E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1675,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.8996868135976317E-2</v>
+        <v>1.4762224214751403E-2</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/Methanol/Methanol_AVE_MOL_FRAC.xlsx
+++ b/Methanol/Methanol_AVE_MOL_FRAC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A02AF8AD-85A7-4450-8775-40BFCDC73BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{774C1668-0AE4-4468-AAAA-92E76EFAE14F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{92F54F10-C2E7-4711-A7DD-53BC39E22AFF}"/>
+    <workbookView xWindow="330" yWindow="1125" windowWidth="16200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Mole_Fractions" sheetId="4" r:id="rId4"/>
     <sheet name="Uncertainties" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="37">
   <si>
     <t>Position_cm</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>u_ave_x_Ethylene_2</t>
+  </si>
+  <si>
+    <t>ave_x_Toluene</t>
+  </si>
+  <si>
+    <t>u_ave_x_Toluene</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -171,12 +177,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60150A0-BBF4-4CB1-B489-6F9D03711AD0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -527,123 +621,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD21986-B4DB-4B99-B233-40BAE584E0A3}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="16" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="14.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16.42578125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.603716659046319E-2</v>
+        <v>0.046262223032493346</v>
       </c>
       <c r="C2">
-        <v>5.583762274158046E-2</v>
+        <v>0.055929882254954814</v>
       </c>
       <c r="D2">
-        <v>0.16507427105645267</v>
+        <v>0.16535472053486505</v>
       </c>
       <c r="E2">
-        <v>4.6141185497058004E-3</v>
+        <v>0.0046217423759209331</v>
       </c>
       <c r="F2">
-        <v>1.8163857040047401E-2</v>
+        <v>0.018193868858768038</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.23958801351603018</v>
+        <v>0.23998388053994738</v>
       </c>
       <c r="I2">
-        <v>0.40406750380213552</v>
+        <v>0.40340834654595692</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.186566531755136E-3</v>
+        <v>0.00071404559196728385</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6.0770544997311778E-2</v>
+        <v>0.060870955090608414</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -660,46 +762,49 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.9442969088131845E-2</v>
+        <v>0.049690336409831476</v>
       </c>
       <c r="C3">
-        <v>5.9995295638911428E-2</v>
+        <v>0.06010127228027886</v>
       </c>
       <c r="D3">
-        <v>0.18347066895762471</v>
+        <v>0.18380302729266851</v>
       </c>
       <c r="E3">
-        <v>4.8182716919801718E-3</v>
+        <v>0.0048267827634846045</v>
       </c>
       <c r="F3">
-        <v>1.6383345918611982E-2</v>
+        <v>0.016412285720580132</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.18506047728377595</v>
+        <v>0.18538737104475392</v>
       </c>
       <c r="I3">
-        <v>0.42469755800259729</v>
+        <v>0.42405306019924283</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.3296451852568177E-3</v>
+        <v>0.0008002378634513204</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.0118365579132827E-2</v>
+        <v>0.070242223771731296</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -716,46 +821,49 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.7205512029483929E-2</v>
+        <v>0.057502680572372185</v>
       </c>
       <c r="C4">
-        <v>4.6546405904140831E-2</v>
+        <v>0.046637519020382483</v>
       </c>
       <c r="D4">
-        <v>0.17614897576312016</v>
+        <v>0.17650292888718372</v>
       </c>
       <c r="E4">
-        <v>6.009464234776051E-3</v>
+        <v>0.0060212275708003494</v>
       </c>
       <c r="F4">
-        <v>3.4250577195579356E-2</v>
+        <v>0.034317621616319037</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.210926032940119E-2</v>
+        <v>0.082269986607522841</v>
       </c>
       <c r="I4">
-        <v>0.53103131985091534</v>
+        <v>0.5303265780134756</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.9610136740300179E-4</v>
+        <v>0.00059961113064106633</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.1029470173859283E-2</v>
+        <v>0.061148933429981948</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -772,46 +880,49 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.859395310691267E-2</v>
+        <v>0.058901391958579859</v>
       </c>
       <c r="C5">
-        <v>3.3284905913351343E-2</v>
+        <v>0.033351791427181192</v>
       </c>
       <c r="D5">
-        <v>0.17063796760717959</v>
+        <v>0.17099017081886561</v>
       </c>
       <c r="E5">
-        <v>6.6814966328272996E-3</v>
+        <v>0.0066949229990187166</v>
       </c>
       <c r="F5">
-        <v>5.1560059765336043E-2</v>
+        <v>0.051663668923777759</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.0837791589324143E-2</v>
+        <v>0.04091985451241726</v>
       </c>
       <c r="I5">
-        <v>0.58803532258640467</v>
+        <v>0.58728541690871194</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.6903178039436344E-4</v>
+        <v>0.00040274990228714137</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.5067038622729531E-2</v>
+        <v>0.045157600153620352</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -828,46 +939,49 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>6.0961525595000038E-2</v>
+        <v>0.052843867521100998</v>
       </c>
       <c r="C6">
-        <v>1.7865206942132429E-2</v>
+        <v>0.018062319511275977</v>
       </c>
       <c r="D6">
-        <v>0.14767855548549222</v>
+        <v>0.14935849579574528</v>
       </c>
       <c r="E6">
-        <v>7.1625430133323426E-3</v>
+        <v>0.0072415696520683201</v>
       </c>
       <c r="F6">
-        <v>8.3043055279696867E-2</v>
+        <v>0.083959295994328637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.1689206747509696E-2</v>
+        <v>0.021928510735341206</v>
       </c>
       <c r="I6">
-        <v>0.63157995028703917</v>
+        <v>0.6364551043335428</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.7110064594348194E-4</v>
+        <v>0.00022541044820043415</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.506679501266151E-2</v>
+        <v>0.025343365017204116</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -884,46 +998,49 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7">
-        <v>5.2016529506637592E-2</v>
+        <v>0.05229747109933832</v>
       </c>
       <c r="C7">
-        <v>1.1113426978582006E-2</v>
+        <v>0.011137465949409765</v>
       </c>
       <c r="D7">
-        <v>0.12005833796355526</v>
+        <v>0.12032809881408943</v>
       </c>
       <c r="E7">
-        <v>7.7856537279799663E-3</v>
+        <v>0.0078024945371383643</v>
       </c>
       <c r="F7">
-        <v>0.10185918073024242</v>
+        <v>0.10207950789654639</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.6005248401475612E-3</v>
+        <v>0.0026061499223917384</v>
       </c>
       <c r="I7">
-        <v>0.68184684901284054</v>
+        <v>0.68108167712109824</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.2854902303269479E-4</v>
+        <v>0.00013760512882203741</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.7836479814073544E-2</v>
+        <v>0.017875061128257427</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -940,46 +1057,49 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3.775832057644158E-2</v>
+        <v>0.037967802112069758</v>
       </c>
       <c r="C8">
-        <v>2.2396320064072815E-3</v>
+        <v>0.0022448045128762762</v>
       </c>
       <c r="D8">
-        <v>7.1173635892437526E-2</v>
+        <v>0.071348817018135141</v>
       </c>
       <c r="E8">
-        <v>8.4004141209852931E-3</v>
+        <v>0.0084198151637721267</v>
       </c>
       <c r="F8">
-        <v>0.13711495688109807</v>
+        <v>0.13743162854833313</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.8237878654192926E-4</v>
+        <v>0.00028303094997588466</v>
       </c>
       <c r="I8">
-        <v>0.73510200535652359</v>
+        <v>0.73438439323237092</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.1126178138968019E-5</v>
+        <v>2.4764928409380196e-05</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.2098823144213148E-3</v>
+        <v>0.0032172956470529939</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -996,46 +1116,49 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>2.5711527429275998E-2</v>
+        <v>0.025856231360411971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.7316984328119004E-2</v>
+        <v>0.047441219750256863</v>
       </c>
       <c r="E9">
-        <v>8.5025518317792658E-3</v>
+        <v>0.0085228669640569528</v>
       </c>
       <c r="F9">
-        <v>0.16112578901486249</v>
+        <v>0.16151076658182545</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.1672692841234485E-4</v>
+        <v>0.00051796154316210703</v>
       </c>
       <c r="I9">
-        <v>0.75149226999864582</v>
+        <v>0.75081840322893711</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.9059521740716443E-6</v>
+        <v>4.7611017976336252e-06</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.4661363054168905E-4</v>
+        <v>0.00064815858336254688</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1052,25 +1175,28 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>9.477354817196389E-3</v>
+        <v>0.0095317652989455794</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.4310597430786652E-2</v>
+        <v>0.01435813076949167</v>
       </c>
       <c r="E10">
-        <v>8.7696530735852825E-3</v>
+        <v>0.0087915952661275446</v>
       </c>
       <c r="F10">
-        <v>0.19207068915676312</v>
+        <v>0.19255126142203166</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.77068461668798671</v>
+        <v>0.77008015840972177</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1106,6 +1232,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
@@ -1116,126 +1245,131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7E7A95-399D-4C04-ACAD-EE43BC32F256}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="17" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="18.140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="19.42578125" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="19.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.5308960899620608E-3</v>
+        <v>0.0055565681953608512</v>
       </c>
       <c r="C2">
-        <v>4.3567096264234472E-3</v>
+        <v>0.0043623659808659119</v>
       </c>
       <c r="D2">
-        <v>3.3924134182618831E-2</v>
+        <v>0.03397834487027232</v>
       </c>
       <c r="E2">
-        <v>4.0310281354297373E-4</v>
+        <v>0.00040365504322192804</v>
       </c>
       <c r="F2">
-        <v>1.6900231279933431E-3</v>
+        <v>0.0016923948597413123</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.0276447901856108E-2</v>
+        <v>0.060373989749546352</v>
       </c>
       <c r="I2">
-        <v>2.4656991130428112E-2</v>
+        <v>0.024273688694737706</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.030313080442258E-4</v>
+        <v>5.7654270058617993e-05</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.7161059179990344E-3</v>
+        <v>0.0037201041661041566</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1252,46 +1386,49 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.574705496540446E-3</v>
+        <v>0.0066057252969957186</v>
       </c>
       <c r="C3">
-        <v>8.6918182678569957E-3</v>
+        <v>0.0087059634067873856</v>
       </c>
       <c r="D3">
-        <v>4.855405396905299E-2</v>
+        <v>0.048637684468104112</v>
       </c>
       <c r="E3">
-        <v>7.8598226908709067E-4</v>
+        <v>0.00078728446427501098</v>
       </c>
       <c r="F3">
-        <v>9.6257656715250869E-3</v>
+        <v>0.0096426874249795607</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.6260254166997974E-2</v>
+        <v>0.096429251854186604</v>
       </c>
       <c r="I3">
-        <v>5.8942400351950745E-2</v>
+        <v>0.058615624775950996</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.2117078849128504E-4</v>
+        <v>0.00012934329555525987</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.1925229207817094E-3</v>
+        <v>0.0092072002519589888</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1308,46 +1445,49 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.5286304375612699E-3</v>
+        <v>0.006551723666080542</v>
       </c>
       <c r="C4">
-        <v>6.9211956829036483E-3</v>
+        <v>0.0069288892976174304</v>
       </c>
       <c r="D4">
-        <v>5.4568882432693332E-2</v>
+        <v>0.054664488162939014</v>
       </c>
       <c r="E4">
-        <v>7.4391234164835457E-4</v>
+        <v>0.0007444604493866265</v>
       </c>
       <c r="F4">
-        <v>8.6851149149124486E-3</v>
+        <v>0.0086995903441601467</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.1655370263164284E-2</v>
+        <v>0.031713352912102123</v>
       </c>
       <c r="I4">
-        <v>4.153538326157747E-2</v>
+        <v>0.040675635035776307</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.3664151810775942E-4</v>
+        <v>7.7567304232923452e-05</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7.6968285252396237E-3</v>
+        <v>0.007702843112115618</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1364,46 +1504,49 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.6145970461259596E-3</v>
+        <v>0.0036104295868053683</v>
       </c>
       <c r="C5">
-        <v>4.3262249855030542E-3</v>
+        <v>0.0043292539655299753</v>
       </c>
       <c r="D5">
-        <v>4.1879877936231866E-2</v>
+        <v>0.041947805721199057</v>
       </c>
       <c r="E5">
-        <v>6.5773192266033479E-4</v>
+        <v>0.00065755156868254152</v>
       </c>
       <c r="F5">
-        <v>5.4540945766933446E-3</v>
+        <v>0.0054542693680180868</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.335520294650339E-2</v>
+        <v>0.013379279375026913</v>
       </c>
       <c r="I5">
-        <v>3.2842877629181345E-2</v>
+        <v>0.031773865903025139</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.4768908331000318E-4</v>
+        <v>8.7435645982674516e-05</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.9908264840615611E-3</v>
+        <v>0.0039875802467177123</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1420,46 +1563,49 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>4.4789948432966721E-3</v>
+        <v>0.0033882614119420625</v>
       </c>
       <c r="C6">
-        <v>4.9163194311054323E-3</v>
+        <v>0.004968544884689681</v>
       </c>
       <c r="D6">
-        <v>4.2280901666464858E-2</v>
+        <v>0.042730296316328943</v>
       </c>
       <c r="E6">
-        <v>6.684559804238777E-4</v>
+        <v>0.00067344202401050995</v>
       </c>
       <c r="F6">
-        <v>8.8008874443410452E-3</v>
+        <v>0.0088736063765379666</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.258643174539285E-2</v>
+        <v>0.012724140348219512</v>
       </c>
       <c r="I6">
-        <v>3.4257601094814939E-2</v>
+        <v>0.033568840957537753</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.1399807149826545E-4</v>
+        <v>6.8839054482536181e-05</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.7862611255707092E-3</v>
+        <v>0.0058467271668239109</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1476,46 +1622,49 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.097688608480826E-3</v>
+        <v>0.0041050316176161764</v>
       </c>
       <c r="C7">
-        <v>8.3754229340376215E-4</v>
+        <v>0.00083626810473681474</v>
       </c>
       <c r="D7">
-        <v>3.0662814489010853E-2</v>
+        <v>0.030718526150011617</v>
       </c>
       <c r="E7">
-        <v>6.0847561765626113E-4</v>
+        <v>0.00060770741414251529</v>
       </c>
       <c r="F7">
-        <v>8.4305269232659626E-3</v>
+        <v>0.0084230176283772353</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.7476079178032732E-4</v>
+        <v>0.00087649145430443724</v>
       </c>
       <c r="I7">
-        <v>2.400149008155297E-2</v>
+        <v>0.022575115732806256</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.4036557982302733E-5</v>
+        <v>7.1697360563565624e-06</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.1256184498360808E-3</v>
+        <v>0.0021270877759751602</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1532,46 +1681,49 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.3931563446269184E-3</v>
+        <v>0.0013722494507599136</v>
       </c>
       <c r="C8">
-        <v>1.7502572376620234E-4</v>
+        <v>0.00017467715511498551</v>
       </c>
       <c r="D8">
-        <v>1.4546875488527048E-2</v>
+        <v>0.014570062612015985</v>
       </c>
       <c r="E8">
-        <v>6.2308904053313963E-4</v>
+        <v>0.00062155244525214444</v>
       </c>
       <c r="F8">
-        <v>3.8981300727669553E-3</v>
+        <v>0.0037786014614988933</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.3643852469956714E-4</v>
+        <v>0.00023697574763291898</v>
       </c>
       <c r="I8">
-        <v>1.9441179826854824E-2</v>
+        <v>0.017197554963008</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.4952987690033735E-6</v>
+        <v>3.2082734068458697e-06</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.3329279411879331E-4</v>
+        <v>0.00023267108071270846</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1588,46 +1740,49 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>6.1566832149304626E-4</v>
+        <v>0.00058688207261613462</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.8749573637049119E-3</v>
+        <v>0.0098908881819675023</v>
       </c>
       <c r="E9">
-        <v>6.0200574200924145E-4</v>
+        <v>0.00060010080744374815</v>
       </c>
       <c r="F9">
-        <v>3.4132608329052964E-3</v>
+        <v>0.0032032922672145135</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5.353113414970032E-5</v>
+        <v>5.3520376168493194e-05</v>
       </c>
       <c r="I9">
-        <v>1.580043900447909E-2</v>
+        <v>0.012740136233568825</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.1594212835715292E-7</v>
+        <v>1.9614137091346823e-07</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.5187369616865154E-5</v>
+        <v>1.4439111766756574e-05</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1644,25 +1799,28 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>2.1153993930755715E-4</v>
+        <v>0.00019920440866207458</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.6336349274119916E-3</v>
+        <v>0.0036396359355138396</v>
       </c>
       <c r="E10">
-        <v>6.1624468061014274E-4</v>
+        <v>0.00061410642143139348</v>
       </c>
       <c r="F10">
-        <v>3.7124260406368789E-3</v>
+        <v>0.0034170870781730805</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.4762224214751403E-2</v>
+        <v>0.011146180319862045</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1698,6 +1856,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
